--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I673"/>
+  <dimension ref="A1:I674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24345,6 +24345,43 @@
         </is>
       </c>
     </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E674" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I674"/>
+  <dimension ref="A1:I675"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24382,6 +24382,43 @@
         </is>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E675" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F675" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G675" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I675"/>
+  <dimension ref="A1:I676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24419,6 +24419,41 @@
         </is>
       </c>
     </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E676" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F676" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G676" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I676" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I676"/>
+  <dimension ref="A1:I677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24454,6 +24454,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E677" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G677" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I677" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I677"/>
+  <dimension ref="A1:I678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24489,6 +24489,43 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E678" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F678" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I678"/>
+  <dimension ref="A1:I679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24526,6 +24526,41 @@
         </is>
       </c>
     </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E679" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F679" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G679" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I679" t="n">
+        <v>44500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I679"/>
+  <dimension ref="A1:I680"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24561,6 +24561,41 @@
         <v>44500</v>
       </c>
     </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E680" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I680" t="n">
+        <v>14900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I680"/>
+  <dimension ref="A1:I681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24596,6 +24596,43 @@
         <v>14900</v>
       </c>
     </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E681" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F681" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G681" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I681"/>
+  <dimension ref="A1:I682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24633,6 +24633,41 @@
         </is>
       </c>
     </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E682" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F682" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G682" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I682" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I682"/>
+  <dimension ref="A1:I683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24668,6 +24668,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E683" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F683" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I683" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I683"/>
+  <dimension ref="A1:I684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24703,6 +24703,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E684" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F684" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G684" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I684"/>
+  <dimension ref="A1:I685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24740,6 +24740,41 @@
         </is>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E685" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F685" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G685" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I685" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I685"/>
+  <dimension ref="A1:I687"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24775,6 +24775,76 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E686" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F686" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G686" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I686" t="n">
+        <v>114200</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E687" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F687" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G687" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I687" t="n">
+        <v>102000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I687"/>
+  <dimension ref="A1:I689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24845,6 +24845,76 @@
         <v>102000</v>
       </c>
     </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E688" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G688" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I688" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E689" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F689" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I689" t="n">
+        <v>12000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I689"/>
+  <dimension ref="A1:I690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24915,6 +24915,41 @@
         <v>12000000</v>
       </c>
     </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E690" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F690" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G690" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I690" t="n">
+        <v>32000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I690"/>
+  <dimension ref="A1:I691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24950,6 +24950,41 @@
         <v>32000</v>
       </c>
     </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E691" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F691" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I691" t="n">
+        <v>20500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I691"/>
+  <dimension ref="A1:I692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24985,6 +24985,43 @@
         <v>20500</v>
       </c>
     </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E692" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F692" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I692"/>
+  <dimension ref="A1:I693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25022,6 +25022,41 @@
         </is>
       </c>
     </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E693" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G693" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I693" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I693"/>
+  <dimension ref="A1:I695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25057,6 +25057,76 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E694" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F694" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G694" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I694" t="n">
+        <v>323900</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E695" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F695" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G695" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I695" t="n">
+        <v>160000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I695"/>
+  <dimension ref="A1:I696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25127,6 +25127,41 @@
         <v>160000</v>
       </c>
     </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E696" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F696" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G696" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I696" t="n">
+        <v>170000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I696"/>
+  <dimension ref="A1:I697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25162,6 +25162,41 @@
         <v>170000</v>
       </c>
     </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E697" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G697" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I697" t="n">
+        <v>204000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I697"/>
+  <dimension ref="A1:I704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22633,11 +22633,11 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>1574985600</v>
+        <v>1574121600</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C626" t="inlineStr">
@@ -22651,28 +22651,28 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="F626" t="n">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="G626" t="n">
-        <v>0.195</v>
+        <v>0.185</v>
       </c>
       <c r="H626" t="n">
-        <v>0.195</v>
+        <v>0.185</v>
       </c>
       <c r="I626" t="n">
-        <v>75000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>1575244800</v>
+        <v>1574208000</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -22686,30 +22686,28 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="F627" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="G627" t="n">
         <v>0.195</v>
       </c>
       <c r="H627" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="I627" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="I627" t="n">
+        <v>10100</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>1575331200</v>
+        <v>1574294400</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C628" t="inlineStr">
@@ -22723,30 +22721,28 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="F628" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="G628" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="H628" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="I628" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.19</v>
+      </c>
+      <c r="I628" t="n">
+        <v>14900</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>1575417600</v>
+        <v>1574380800</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -22760,28 +22756,28 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F629" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="G629" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="H629" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="I629" t="n">
-        <v>86000</v>
+        <v>172000</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>1575504000</v>
+        <v>1574640000</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -22801,22 +22797,22 @@
         <v>0.2</v>
       </c>
       <c r="G630" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="H630" t="n">
         <v>0.2</v>
       </c>
       <c r="I630" t="n">
-        <v>10000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>1575590400</v>
+        <v>1574812800</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -22836,22 +22832,22 @@
         <v>0.2</v>
       </c>
       <c r="G631" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="H631" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="I631" t="n">
-        <v>31000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>1575849600</v>
+        <v>1574899200</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -22865,28 +22861,28 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="F632" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="G632" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="H632" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="I632" t="n">
-        <v>31000</v>
+        <v>33600</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>1575936000</v>
+        <v>1574985600</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C633" t="inlineStr">
@@ -22906,24 +22902,22 @@
         <v>0.2</v>
       </c>
       <c r="G633" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="H633" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I633" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.195</v>
+      </c>
+      <c r="I633" t="n">
+        <v>75000</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>1576022400</v>
+        <v>1575244800</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C634" t="inlineStr">
@@ -22937,16 +22931,16 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="F634" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="G634" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="H634" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="I634" t="inlineStr">
         <is>
@@ -22956,11 +22950,11 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>1576108800</v>
+        <v>1575331200</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C635" t="inlineStr">
@@ -22985,17 +22979,19 @@
       <c r="H635" t="n">
         <v>0.195</v>
       </c>
-      <c r="I635" t="n">
-        <v>25500</v>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>1576195200</v>
+        <v>1575417600</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C636" t="inlineStr">
@@ -23009,30 +23005,28 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="F636" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="G636" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="H636" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="I636" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="I636" t="n">
+        <v>86000</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>1576454400</v>
+        <v>1575504000</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -23058,16 +23052,16 @@
         <v>0.2</v>
       </c>
       <c r="I637" t="n">
-        <v>17500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>1576540800</v>
+        <v>1575590400</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -23087,22 +23081,22 @@
         <v>0.2</v>
       </c>
       <c r="G638" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="H638" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="I638" t="n">
-        <v>5000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>1576627200</v>
+        <v>1575849600</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C639" t="inlineStr">
@@ -23128,16 +23122,16 @@
         <v>0.2</v>
       </c>
       <c r="I639" t="n">
-        <v>7300</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>1576713600</v>
+        <v>1575936000</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C640" t="inlineStr">
@@ -23157,22 +23151,24 @@
         <v>0.2</v>
       </c>
       <c r="G640" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H640" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I640" t="n">
-        <v>273500</v>
+        <v>0.2</v>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>1576800000</v>
+        <v>1576022400</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C641" t="inlineStr">
@@ -23186,28 +23182,30 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="F641" t="n">
         <v>0.2</v>
       </c>
       <c r="G641" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="H641" t="n">
         <v>0.2</v>
       </c>
-      <c r="I641" t="n">
-        <v>38100</v>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>1577059200</v>
+        <v>1576108800</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -23221,28 +23219,28 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="F642" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="G642" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="H642" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="I642" t="n">
-        <v>1000</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>1577145600</v>
+        <v>1576195200</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -23256,28 +23254,30 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>0.18</v>
+        <v>0.195</v>
       </c>
       <c r="F643" t="n">
         <v>0.195</v>
       </c>
       <c r="G643" t="n">
-        <v>0.18</v>
+        <v>0.195</v>
       </c>
       <c r="H643" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I643" t="n">
-        <v>78500</v>
+        <v>0.195</v>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>1577318400</v>
+        <v>1576454400</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -23291,30 +23291,28 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F644" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G644" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H644" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I644" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="I644" t="n">
+        <v>17500</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>1577404800</v>
+        <v>1576540800</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -23328,28 +23326,28 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="F645" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="G645" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="H645" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="I645" t="n">
-        <v>12100</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>1577664000</v>
+        <v>1576627200</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C646" t="inlineStr">
@@ -23363,30 +23361,28 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="F646" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="G646" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="H646" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="I646" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="I646" t="n">
+        <v>7300</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>1577750400</v>
+        <v>1576713600</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -23400,28 +23396,28 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F647" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G647" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="H647" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I647" t="n">
-        <v>141200</v>
+        <v>273500</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>1577923200</v>
+        <v>1576800000</v>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C648" t="inlineStr">
@@ -23435,30 +23431,28 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="F648" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G648" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="H648" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I648" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="I648" t="n">
+        <v>38100</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>1578009600</v>
+        <v>1577059200</v>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C649" t="inlineStr">
@@ -23484,16 +23478,16 @@
         <v>0.2</v>
       </c>
       <c r="I649" t="n">
-        <v>110600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>1578268800</v>
+        <v>1577145600</v>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -23507,30 +23501,28 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="F650" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="G650" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="H650" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I650" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.19</v>
+      </c>
+      <c r="I650" t="n">
+        <v>78500</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>1578355200</v>
+        <v>1577318400</v>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -23544,28 +23536,30 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F651" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G651" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H651" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>8000</v>
+        <v>0.19</v>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>1578441600</v>
+        <v>1577404800</v>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -23579,28 +23573,28 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>0.2</v>
+        <v>0.185</v>
       </c>
       <c r="F652" t="n">
-        <v>0.2</v>
+        <v>0.195</v>
       </c>
       <c r="G652" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="H652" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="I652" t="n">
-        <v>25000</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>1578528000</v>
+        <v>1577664000</v>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -23614,16 +23608,16 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="F653" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="G653" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="H653" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="I653" t="inlineStr">
         <is>
@@ -23633,11 +23627,11 @@
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>1578614400</v>
+        <v>1577750400</v>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C654" t="inlineStr">
@@ -23651,28 +23645,28 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F654" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G654" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H654" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I654" t="n">
-        <v>14600</v>
+        <v>141200</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>1578873600</v>
+        <v>1577923200</v>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C655" t="inlineStr">
@@ -23686,16 +23680,16 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="F655" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G655" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H655" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I655" t="inlineStr">
         <is>
@@ -23705,11 +23699,11 @@
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>1578960000</v>
+        <v>1578009600</v>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C656" t="inlineStr">
@@ -23734,19 +23728,17 @@
       <c r="H656" t="n">
         <v>0.2</v>
       </c>
-      <c r="I656" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I656" t="n">
+        <v>110600</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>1579046400</v>
+        <v>1578268800</v>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -23760,28 +23752,30 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="F657" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="G657" t="n">
         <v>0.2</v>
       </c>
       <c r="H657" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="I657" t="n">
-        <v>577200</v>
+        <v>0.2</v>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>1579132800</v>
+        <v>1578355200</v>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -23795,28 +23789,28 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="F658" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="G658" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="H658" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="I658" t="n">
-        <v>56900</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>1579219200</v>
+        <v>1578441600</v>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -23830,30 +23824,28 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="F659" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="G659" t="n">
-        <v>0.215</v>
+        <v>0.18</v>
       </c>
       <c r="H659" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="I659" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.18</v>
+      </c>
+      <c r="I659" t="n">
+        <v>25000</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>1579478400</v>
+        <v>1578528000</v>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -23867,16 +23859,16 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>0.215</v>
+        <v>0.18</v>
       </c>
       <c r="F660" t="n">
-        <v>0.215</v>
+        <v>0.18</v>
       </c>
       <c r="G660" t="n">
-        <v>0.215</v>
+        <v>0.18</v>
       </c>
       <c r="H660" t="n">
-        <v>0.215</v>
+        <v>0.18</v>
       </c>
       <c r="I660" t="inlineStr">
         <is>
@@ -23886,11 +23878,11 @@
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>1579564800</v>
+        <v>1578614400</v>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C661" t="inlineStr">
@@ -23904,30 +23896,28 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="F661" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="G661" t="n">
-        <v>0.215</v>
+        <v>0.2</v>
       </c>
       <c r="H661" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="I661" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="I661" t="n">
+        <v>14600</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>1579651200</v>
+        <v>1578873600</v>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C662" t="inlineStr">
@@ -23941,28 +23931,30 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F662" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G662" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H662" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I662" t="n">
-        <v>50000</v>
+        <v>0.2</v>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>1579737600</v>
+        <v>1578960000</v>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -23987,17 +23979,19 @@
       <c r="H663" t="n">
         <v>0.2</v>
       </c>
-      <c r="I663" t="n">
-        <v>102400</v>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>1579824000</v>
+        <v>1579046400</v>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C664" t="inlineStr">
@@ -24011,28 +24005,28 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="F664" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="G664" t="n">
         <v>0.2</v>
       </c>
       <c r="H664" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="I664" t="n">
-        <v>40000</v>
+        <v>577200</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>1580169600</v>
+        <v>1579132800</v>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -24046,28 +24040,28 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="F665" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="G665" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="H665" t="n">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="I665" t="n">
-        <v>5000</v>
+        <v>56900</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>1580256000</v>
+        <v>1579219200</v>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -24081,28 +24075,30 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="F666" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="G666" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="H666" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="I666" t="n">
-        <v>15500</v>
+        <v>0.215</v>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>1580342400</v>
+        <v>1579478400</v>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C667" t="inlineStr">
@@ -24116,16 +24112,16 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="F667" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="G667" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="H667" t="n">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="I667" t="inlineStr">
         <is>
@@ -24135,11 +24131,11 @@
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>1580428800</v>
+        <v>1579564800</v>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -24153,28 +24149,30 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>0.19</v>
+        <v>0.215</v>
       </c>
       <c r="F668" t="n">
-        <v>0.19</v>
+        <v>0.215</v>
       </c>
       <c r="G668" t="n">
-        <v>0.19</v>
+        <v>0.215</v>
       </c>
       <c r="H668" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I668" t="n">
-        <v>18000</v>
+        <v>0.215</v>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>1580688000</v>
+        <v>1579651200</v>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -24188,28 +24186,28 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="F669" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="G669" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="H669" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="I669" t="n">
-        <v>12000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>1580774400</v>
+        <v>1579737600</v>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -24223,28 +24221,28 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F670" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G670" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H670" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I670" t="n">
-        <v>4000000</v>
+        <v>102400</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>1580860800</v>
+        <v>1579824000</v>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -24258,28 +24256,28 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="F671" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="G671" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="H671" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="I671" t="n">
-        <v>106000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>1580947200</v>
+        <v>1580169600</v>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -24293,28 +24291,28 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="F672" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="G672" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="H672" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="I672" t="n">
-        <v>78000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>1581033600</v>
+        <v>1580256000</v>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -24328,30 +24326,28 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="F673" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="G673" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="H673" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="I673" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.21</v>
+      </c>
+      <c r="I673" t="n">
+        <v>15500</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>1581379200</v>
+        <v>1580342400</v>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C674" t="inlineStr">
@@ -24365,16 +24361,16 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="F674" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="G674" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="H674" t="n">
-        <v>0.195</v>
+        <v>0.21</v>
       </c>
       <c r="I674" t="inlineStr">
         <is>
@@ -24384,11 +24380,11 @@
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>1581465600</v>
+        <v>1580428800</v>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C675" t="inlineStr">
@@ -24402,30 +24398,28 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="F675" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="G675" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="H675" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="I675" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.19</v>
+      </c>
+      <c r="I675" t="n">
+        <v>18000</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>1581552000</v>
+        <v>1580688000</v>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C676" t="inlineStr">
@@ -24439,28 +24433,28 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="F676" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="G676" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="H676" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="I676" t="n">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>1581638400</v>
+        <v>1580774400</v>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -24486,16 +24480,16 @@
         <v>0.19</v>
       </c>
       <c r="I677" t="n">
-        <v>8000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>1581897600</v>
+        <v>1580860800</v>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -24509,30 +24503,28 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="F678" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="G678" t="n">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="H678" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I678" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.195</v>
+      </c>
+      <c r="I678" t="n">
+        <v>106000</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>1581984000</v>
+        <v>1580947200</v>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -24546,28 +24538,28 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="F679" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="G679" t="n">
         <v>0.19</v>
       </c>
       <c r="H679" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="I679" t="n">
-        <v>44500</v>
+        <v>78000</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>1582070400</v>
+        <v>1581033600</v>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -24581,28 +24573,30 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="F680" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="G680" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="H680" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I680" t="n">
-        <v>14900</v>
+        <v>0.195</v>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>1582156800</v>
+        <v>1581379200</v>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -24616,16 +24610,16 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="F681" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="G681" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="H681" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="I681" t="inlineStr">
         <is>
@@ -24635,11 +24629,11 @@
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>1582243200</v>
+        <v>1581465600</v>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -24653,28 +24647,30 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="F682" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="G682" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="H682" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="I682" t="n">
-        <v>40000</v>
+        <v>0.195</v>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>1582502400</v>
+        <v>1581552000</v>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -24688,16 +24684,16 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="F683" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="G683" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="H683" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="I683" t="n">
         <v>10000</v>
@@ -24705,11 +24701,11 @@
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>1582588800</v>
+        <v>1581638400</v>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
@@ -24734,19 +24730,17 @@
       <c r="H684" t="n">
         <v>0.19</v>
       </c>
-      <c r="I684" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="I684" t="n">
+        <v>8000</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>1582675200</v>
+        <v>1581897600</v>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
@@ -24760,28 +24754,30 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F685" t="n">
         <v>0.19</v>
       </c>
       <c r="G685" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="H685" t="n">
         <v>0.19</v>
       </c>
-      <c r="I685" t="n">
-        <v>4000</v>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>1582761600</v>
+        <v>1581984000</v>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -24795,28 +24791,28 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F686" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G686" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="H686" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I686" t="n">
-        <v>114200</v>
+        <v>44500</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>1582848000</v>
+        <v>1582070400</v>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -24830,28 +24826,28 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F687" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G687" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="H687" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I687" t="n">
-        <v>102000</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>1583107200</v>
+        <v>1582156800</v>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
@@ -24865,28 +24861,30 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="F688" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="G688" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="H688" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="I688" t="n">
-        <v>20000</v>
+        <v>0.19</v>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>1583193600</v>
+        <v>1582243200</v>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -24900,28 +24898,28 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="F689" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="G689" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="H689" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="I689" t="n">
-        <v>12000000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>1583280000</v>
+        <v>1582502400</v>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -24935,28 +24933,28 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F690" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="G690" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="H690" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I690" t="n">
-        <v>32000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>1583366400</v>
+        <v>1582588800</v>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C691" t="inlineStr">
@@ -24970,28 +24968,30 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="F691" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G691" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="H691" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I691" t="n">
-        <v>20500</v>
+        <v>0.19</v>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>1583452800</v>
+        <v>1582675200</v>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C692" t="inlineStr">
@@ -25005,30 +25005,28 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F692" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G692" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="H692" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="I692" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0.19</v>
+      </c>
+      <c r="I692" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>1583712000</v>
+        <v>1582761600</v>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -25045,25 +25043,25 @@
         <v>0.17</v>
       </c>
       <c r="F693" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G693" t="n">
         <v>0.16</v>
       </c>
       <c r="H693" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I693" t="n">
-        <v>50000</v>
+        <v>114200</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>1583798400</v>
+        <v>1582848000</v>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -25077,28 +25075,28 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>0.155</v>
+        <v>0.18</v>
       </c>
       <c r="F694" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="G694" t="n">
-        <v>0.155</v>
+        <v>0.175</v>
       </c>
       <c r="H694" t="n">
-        <v>0.155</v>
+        <v>0.18</v>
       </c>
       <c r="I694" t="n">
-        <v>323900</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>1583884800</v>
+        <v>1583107200</v>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-03-02</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
@@ -25112,28 +25110,28 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="F695" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="G695" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="H695" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="I695" t="n">
-        <v>160000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>1583971200</v>
+        <v>1583193600</v>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
@@ -25147,53 +25145,300 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="F696" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="G696" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="H696" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="I696" t="n">
-        <v>170000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E697" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F697" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G697" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I697" t="n">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E698" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F698" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G698" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I698" t="n">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E699" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F699" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G699" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E700" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F700" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G700" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I700" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E701" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F701" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G701" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I701" t="n">
+        <v>323900</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E702" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F702" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G702" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I702" t="n">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E703" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G703" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H703" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I703" t="n">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B697" t="inlineStr">
+      <c r="B704" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C697" t="inlineStr">
-        <is>
-          <t>0190</t>
-        </is>
-      </c>
-      <c r="D697" t="inlineStr">
-        <is>
-          <t>ESAFE</t>
-        </is>
-      </c>
-      <c r="E697" t="n">
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E704" t="n">
         <v>0.14</v>
       </c>
-      <c r="F697" t="n">
+      <c r="F704" t="n">
         <v>0.16</v>
       </c>
-      <c r="G697" t="n">
+      <c r="G704" t="n">
         <v>0.12</v>
       </c>
-      <c r="H697" t="n">
+      <c r="H704" t="n">
         <v>0.16</v>
       </c>
-      <c r="I697" t="n">
+      <c r="I704" t="n">
         <v>204000</v>
       </c>
     </row>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I704"/>
+  <dimension ref="A1:I705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25442,6 +25442,41 @@
         <v>204000</v>
       </c>
     </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E705" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F705" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G705" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H705" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I705" t="n">
+        <v>183000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I705"/>
+  <dimension ref="A1:I706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25477,6 +25477,41 @@
         <v>183000</v>
       </c>
     </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E706" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F706" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G706" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I706" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I706"/>
+  <dimension ref="A1:I707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25512,6 +25512,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E707" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F707" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G707" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I707" t="n">
+        <v>146000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I707"/>
+  <dimension ref="A1:I708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25547,6 +25547,43 @@
         <v>146000</v>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E708" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F708" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G708" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I708"/>
+  <dimension ref="A1:I709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25584,6 +25584,41 @@
         </is>
       </c>
     </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E709" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F709" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G709" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I709" t="n">
+        <v>107500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I709"/>
+  <dimension ref="A1:I710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25619,6 +25619,41 @@
         <v>107500</v>
       </c>
     </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E710" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F710" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G710" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I710" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I710"/>
+  <dimension ref="A1:I711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25654,6 +25654,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E711" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F711" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G711" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I711"/>
+  <dimension ref="A1:I712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25691,6 +25691,41 @@
         </is>
       </c>
     </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E712" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F712" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G712" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I712" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I712"/>
+  <dimension ref="A1:I713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25726,6 +25726,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E713" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F713" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G713" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I713" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I713"/>
+  <dimension ref="A1:I714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25761,6 +25761,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E714" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F714" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G714" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I714" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I714"/>
+  <dimension ref="A1:I715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25796,6 +25796,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E715" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F715" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G715" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I715" t="n">
+        <v>66600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I715"/>
+  <dimension ref="A1:I716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25831,6 +25831,41 @@
         <v>66600</v>
       </c>
     </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E716" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G716" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I716" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I716"/>
+  <dimension ref="A1:I717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25866,6 +25866,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E717" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F717" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G717" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I717" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I717"/>
+  <dimension ref="A1:I718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25901,6 +25901,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E718" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F718" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G718" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I718" t="n">
+        <v>85000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I718"/>
+  <dimension ref="A1:I719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25936,6 +25936,41 @@
         <v>85000</v>
       </c>
     </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E719" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F719" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G719" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I719" t="n">
+        <v>140100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I719"/>
+  <dimension ref="A1:I720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25971,6 +25971,41 @@
         <v>140100</v>
       </c>
     </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E720" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F720" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G720" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I720" t="n">
+        <v>110100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I720"/>
+  <dimension ref="A1:I721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26006,6 +26006,41 @@
         <v>110100</v>
       </c>
     </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E721" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F721" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G721" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I721" t="n">
+        <v>415100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I721"/>
+  <dimension ref="A1:I722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26041,6 +26041,41 @@
         <v>415100</v>
       </c>
     </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E722" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F722" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G722" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I722" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I722"/>
+  <dimension ref="A1:I723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26076,6 +26076,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E723" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F723" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G723" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I723" t="n">
+        <v>48000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I723"/>
+  <dimension ref="A1:I724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26111,6 +26111,41 @@
         <v>48000</v>
       </c>
     </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E724" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F724" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G724" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I724" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I724"/>
+  <dimension ref="A1:I725"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26146,6 +26146,43 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E725" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F725" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G725" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I725"/>
+  <dimension ref="A1:I726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26183,6 +26183,43 @@
         </is>
       </c>
     </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E726" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F726" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G726" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I726"/>
+  <dimension ref="A1:I727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26220,6 +26220,41 @@
         </is>
       </c>
     </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E727" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F727" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G727" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I727" t="n">
+        <v>10300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I727"/>
+  <dimension ref="A1:I728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26255,6 +26255,41 @@
         <v>10300</v>
       </c>
     </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E728" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G728" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I728" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I728"/>
+  <dimension ref="A1:I729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26290,6 +26290,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E729" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G729" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I729" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I729"/>
+  <dimension ref="A1:I731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26325,6 +26325,78 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E730" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F730" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G730" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I730" t="n">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E731" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F731" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G731" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I731"/>
+  <dimension ref="A1:I732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26397,6 +26397,43 @@
         </is>
       </c>
     </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E732" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F732" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G732" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I732"/>
+  <dimension ref="A1:I735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26434,6 +26434,113 @@
         </is>
       </c>
     </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E733" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F733" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G733" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E734" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F734" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G734" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I734" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E735" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G735" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I735" t="n">
+        <v>164500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I735"/>
+  <dimension ref="A1:I736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26541,6 +26541,41 @@
         <v>164500</v>
       </c>
     </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E736" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F736" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G736" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I736" t="n">
+        <v>28300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I736"/>
+  <dimension ref="A1:I737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26576,6 +26576,41 @@
         <v>28300</v>
       </c>
     </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E737" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F737" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G737" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I737" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0190.xlsx
+++ b/data/0190.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I737"/>
+  <dimension ref="A1:I740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26611,6 +26611,111 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E738" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F738" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G738" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I738" t="n">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E739" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F739" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G739" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I739" t="n">
+        <v>126300</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>0190</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>ESAFE</t>
+        </is>
+      </c>
+      <c r="E740" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F740" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G740" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I740" t="n">
+        <v>422700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
